--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2556829.574659891</v>
+        <v>2632359.244324697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>386.1843633205747</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.5294088101051</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.5773991465717</v>
+        <v>128.801431250095</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>366.1937723875018</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>196.8270259898453</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>86.88462298447445</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>195.2733431958791</v>
+        <v>241.5848517285253</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>4.252601227922779</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6798090112949</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>84.99328957525786</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385012</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.3674220664875</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>206.8064269214923</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1898,10 +1900,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>84.06673953598508</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.4322165318416</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>196.0108582288293</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>69.08435319695953</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>143.9705362099826</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3.660952232139397</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.38190657936072</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.9293807605943</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>178.763734563298</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.3855388872491</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>170.2201007724208</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>97.96785487034683</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>42.55891127447056</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>128.3708685936568</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>58.15409578032135</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.83119524460996</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>112.1832140800408</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.1537278750108</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>181.983464382199</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1547.452423968253</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1189.186725361503</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1189.186725361503</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1791.921027721229</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9169416640003</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9807587360934</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9807587360934</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9807587360934</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9807587360934</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9807587360934</v>
+        <v>184.0454376285412</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1297.230130518035</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>1297.230130518035</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1297.230130518035</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>911.4418779197904</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>904.4963771705869</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582156</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2499.903289810263</v>
+        <v>2398.095298792629</v>
       </c>
       <c r="V8" t="n">
-        <v>2499.903289810263</v>
+        <v>2067.032411449059</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.134634540149</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.668876279069</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.668876279069</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220518</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220518</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220518</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220518</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>103.8950630491117</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220518</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220518</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220518</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5026,13 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.0688991120615</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C13" t="n">
-        <v>183.0688991120615</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="D13" t="n">
-        <v>183.0688991120615</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="E13" t="n">
-        <v>183.0688991120615</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="F13" t="n">
-        <v>183.0688991120615</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="G13" t="n">
-        <v>183.0688991120615</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>183.0688991120615</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858313</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.7173639423012</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5267,28 +5269,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,7 +5320,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433115</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.134404651812</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5446,40 +5448,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>781.8780707889955</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>561.0854916454654</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864553</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N18" t="n">
-        <v>2013.406634128704</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>2292.946699347401</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>2497.96918012961</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>993.2877828087275</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C19" t="n">
-        <v>824.3515998808206</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1214.080361952258</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1214.080361952258</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>1214.080361952258</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>1214.080361952258</v>
+        <v>528.105874218302</v>
       </c>
       <c r="X19" t="n">
-        <v>1214.080361952258</v>
+        <v>528.105874218302</v>
       </c>
       <c r="Y19" t="n">
-        <v>993.2877828087275</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K21" t="n">
-        <v>329.1202010073254</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L21" t="n">
-        <v>943.017270764214</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M21" t="n">
-        <v>1711.385417156675</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820708</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954965</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954965</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954965</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>4408.179318920699</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954965</v>
+        <v>4180.189768022682</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954965</v>
+        <v>3959.397188879152</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>3361.396285949676</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>3691.258913613709</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3871.224633159121</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>3871.224633159121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4791.072398067869</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4791.072398067869</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4791.072398067869</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>4791.072398067869</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W25" t="n">
-        <v>4501.655228030909</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X25" t="n">
-        <v>4273.665677132892</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>4052.873097989361</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2615.384144152049</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2862.149272058512</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>3169.469405338474</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>646.9375622247744</v>
+        <v>3739.626168222636</v>
       </c>
       <c r="C28" t="n">
-        <v>646.9375622247744</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="D28" t="n">
-        <v>646.9375622247744</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="E28" t="n">
-        <v>499.0244686423813</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="F28" t="n">
-        <v>499.0244686423813</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8491469622019</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H28" t="n">
-        <v>180.4311385101452</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227918</v>
+        <v>4260.730820705229</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9271131227918</v>
+        <v>3971.313650668269</v>
       </c>
       <c r="X28" t="n">
-        <v>646.9375622247744</v>
+        <v>3743.324099770251</v>
       </c>
       <c r="Y28" t="n">
-        <v>646.9375622247744</v>
+        <v>3743.324099770251</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6476,16 +6478,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>4037.959335809195</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>657.199424285124</v>
+        <v>4204.808076813059</v>
       </c>
       <c r="C31" t="n">
-        <v>657.199424285124</v>
+        <v>4035.871893885153</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>3885.755254472817</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1429.290633425989</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.290633425989</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.290633425989</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V31" t="n">
-        <v>1174.606145220102</v>
+        <v>4606.170084808406</v>
       </c>
       <c r="W31" t="n">
-        <v>885.1889751831413</v>
+        <v>4425.600655956589</v>
       </c>
       <c r="X31" t="n">
-        <v>657.199424285124</v>
+        <v>4425.600655956589</v>
       </c>
       <c r="Y31" t="n">
-        <v>657.199424285124</v>
+        <v>4204.808076813059</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014775</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>3802.012779407237</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.1696912903951</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570736</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>531.109187020113</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>359.1696912903951</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1696912903951</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7019,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615138</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>677.4616523829102</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="C37" t="n">
-        <v>677.4616523829102</v>
+        <v>3925.360448591583</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>4650.822040414151</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>4650.822040414151</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>4361.693401627709</v>
       </c>
       <c r="V37" t="n">
-        <v>966.8788224198709</v>
+        <v>4107.008913421822</v>
       </c>
       <c r="W37" t="n">
-        <v>677.4616523829102</v>
+        <v>4107.008913421822</v>
       </c>
       <c r="X37" t="n">
-        <v>677.4616523829102</v>
+        <v>4107.008913421822</v>
       </c>
       <c r="Y37" t="n">
-        <v>677.4616523829102</v>
+        <v>4107.008913421822</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,10 +7159,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7214,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7257,19 +7259,19 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.509052552801</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
         <v>265.3924131404652</v>
@@ -7321,13 +7323,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1369.248726523906</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1369.248726523906</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1369.248726523906</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="V40" t="n">
-        <v>1114.564238318019</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W40" t="n">
-        <v>825.1470682810581</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X40" t="n">
-        <v>597.1575173830407</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.1575173830407</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7397,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7415,7 +7417,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7497,16 +7499,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.8647634245383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>178.8647634245383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>178.8647634245383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>178.8647634245383</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7597,22 +7599,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="W43" t="n">
-        <v>809.2953582963255</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="X43" t="n">
-        <v>581.3058073983082</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y43" t="n">
-        <v>360.513228254778</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166741</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O45" t="n">
-        <v>4360.722674916368</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2507.259996875532</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>237.7764125461553</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>237.7764125461553</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7804,52 +7806,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974674</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980071</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585754</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.91627055791</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473462</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473462</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.86762168702</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>755.1831334811333</v>
+        <v>1315.094589363763</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441727</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X46" t="n">
-        <v>237.7764125461553</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y46" t="n">
-        <v>237.7764125461553</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142017</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504737</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>308.1251096272039</v>
       </c>
       <c r="P15" t="n">
-        <v>158.8724419039332</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>145.2351313103787</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>38.86002301949951</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K21" t="n">
-        <v>41.75994765618393</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>392.1113620226436</v>
+        <v>159.0121003135234</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9956,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.23759968302051</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>38.8600230194989</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>253.7371603504723</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10430,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N33" t="n">
-        <v>158.8724419039318</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
-        <v>158.8724419039329</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>43.65987261462459</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11063,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11145,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>285.1031356539329</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>308.1251096272019</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978086</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>20.81375945208268</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25.42595588901412</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.46455811544976</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.74113413689699</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>137.4808215224042</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.0907818047494</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>113.0824928447106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>90.51214010776167</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>128.8364567866437</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>108.1671071138454</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>176.1710279497979</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>28.03733888491128</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>128.9914292230089</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>107.759263773293</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>3.86128221137875</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>55.48955461661637</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>99.95295511325642</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>209.5787320493574</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>69.54994138994641</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>228.083256618256</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>64.58985277832129</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>139.9544292437872</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.461745143201597</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>70.154178941629</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982129</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="O2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065631</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26426,31 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687083</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687086</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="K4" t="n">
-        <v>22174.60758687063</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26457,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687081</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662656</v>
+        <v>-222678.4976662654</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.381548279</v>
+        <v>367289.3815482788</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482786</v>
+        <v>367289.3815482787</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592111</v>
+        <v>-52778.38040592021</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709759</v>
+        <v>472381.6560709751</v>
       </c>
       <c r="G6" t="n">
+        <v>472381.6560709754</v>
+      </c>
+      <c r="H6" t="n">
+        <v>472381.6560709756</v>
+      </c>
+      <c r="I6" t="n">
         <v>472381.6560709752</v>
       </c>
-      <c r="H6" t="n">
-        <v>472381.6560709753</v>
-      </c>
-      <c r="I6" t="n">
-        <v>472381.6560709754</v>
-      </c>
       <c r="J6" t="n">
-        <v>295958.4368783826</v>
+        <v>295958.4368783822</v>
       </c>
       <c r="K6" t="n">
         <v>472381.6560709758</v>
       </c>
       <c r="L6" t="n">
+        <v>472381.6560709759</v>
+      </c>
+      <c r="M6" t="n">
+        <v>337580.6408371382</v>
+      </c>
+      <c r="N6" t="n">
         <v>472381.6560709756</v>
       </c>
-      <c r="M6" t="n">
-        <v>337580.6408371388</v>
-      </c>
-      <c r="N6" t="n">
-        <v>472381.6560709757</v>
-      </c>
       <c r="O6" t="n">
-        <v>472381.6560709757</v>
+        <v>472381.6560709756</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709757</v>
+        <v>472381.6560709752</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.992550358016083e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20.6916824211367</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.70852984594848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>11.5934896952235</v>
+        <v>27.36945759170013</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>47.59039763329321</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>189.4109126662083</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,25 +27824,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>274.6030296399667</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>138.8250324045627</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>55.95082431241019</v>
+        <v>9.63931577976399</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>130.7130205644154</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>131.2032677321246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.053858940149583e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.000161767118023e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34444,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>265.095754002253</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915819</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>590.488811868312</v>
       </c>
       <c r="P15" t="n">
-        <v>365.9658568354579</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35814,16 +35816,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056101</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35963,13 +35965,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608449</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35981,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.8730558045736</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36136,7 +36138,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502048</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K21" t="n">
-        <v>192.3353862441232</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>702.5357390731098</v>
+        <v>469.4364773639896</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,13 +36676,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>241.8130382709597</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415663</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>88.0130327850741</v>
@@ -36911,7 +36913,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36920,13 +36922,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>532.9342021211282</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915805</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N33" t="n">
-        <v>492.0670153019448</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,28 +37387,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
-        <v>408.1301468599572</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37625,13 +37627,13 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>376.8544460126375</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37640,7 +37642,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,13 +37785,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37865,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>595.5275127043992</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>590.4888118683101</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248551</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056112</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632359.244324697</v>
+        <v>2625342.229432986</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>386.1843633205747</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>37.55029853296594</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.801431250095</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>72.75305087075564</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.8270259898453</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.67884460201108</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>163.9206648785251</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.5848517285253</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4.252601227922779</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>64.82020454357844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6798090112949</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385012</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.3674220664875</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>145.4322165318416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>196.0108582288293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>143.9705362099826</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.660952232139397</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>161.8350885124343</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.4824349897581</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>178.763734563298</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>163.3855388872491</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670921</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.96785487034683</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>166.2140976094962</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>58.15409578032135</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>112.1832140800408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>181.983464382199</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1547.452423968253</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>1547.452423968253</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D2" t="n">
-        <v>1189.186725361503</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E2" t="n">
-        <v>1189.186725361503</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>105.7959803595169</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>91.87257629810783</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>91.87257629810783</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1547.452423968253</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,7 +4409,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0454376285412</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0454376285412</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0454376285412</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0454376285412</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>184.0454376285412</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>184.0454376285412</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>506.4943954681378</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.5060781830496</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014692</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1342.105918247171</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1714.263756178945</v>
+        <v>609.3508327416162</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>240.3883158012044</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2398.095298792629</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2067.032411449059</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>1714.263756178945</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1714.263756178945</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.263756178945</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>272.8312459770186</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>103.8950630491117</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>103.8950630491117</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>103.8950630491117</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>103.8950630491117</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>103.8950630491117</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>103.8950630491117</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.8312459770186</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.3210135240263</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C13" t="n">
-        <v>506.3210135240263</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D13" t="n">
-        <v>506.3210135240263</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>506.3210135240263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675564</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3210135240263</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889955</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.0854916454654</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>528.105874218302</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5776,22 +5776,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>229.0333923118347</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>378.1030765138945</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3777.748724048912</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C22" t="n">
-        <v>3777.748724048912</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D22" t="n">
-        <v>3777.748724048912</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E22" t="n">
-        <v>3777.748724048912</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F22" t="n">
-        <v>3777.748724048912</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>4606.170084808406</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>4408.179318920699</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X22" t="n">
-        <v>4180.189768022682</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y22" t="n">
-        <v>3959.397188879152</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359327</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>3361.396285949676</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>3691.258913613709</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>818.7109577742983</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>818.7109577742983</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3739.626168222636</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C28" t="n">
-        <v>3570.689985294729</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294729</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294729</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294729</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.859459491671</v>
+        <v>1135.526474097259</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705229</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="V28" t="n">
-        <v>4260.730820705229</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="W28" t="n">
-        <v>3971.313650668269</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="X28" t="n">
-        <v>3743.324099770251</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="Y28" t="n">
-        <v>3743.324099770251</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2786.879505108311</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>3400.7765748652</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>3708.096708145162</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4037.959335809195</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4204.808076813059</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C31" t="n">
-        <v>4035.871893885153</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D31" t="n">
-        <v>3885.755254472817</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>3885.755254472817</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>3738.865306974907</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808406</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="W31" t="n">
-        <v>4425.600655956589</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="X31" t="n">
-        <v>4425.600655956589</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y31" t="n">
-        <v>4204.808076813059</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="32">
@@ -6679,34 +6679,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,34 +6715,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>857.5427825698952</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
         <v>1661.954360834046</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>692.3809108364826</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
         <v>527.3450129705744</v>
@@ -6849,13 +6849,13 @@
         <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>692.3809108364826</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6946,19 +6946,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>452.0983189327497</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>698.8634468392138</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1006.183580119176</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3925.360448591583</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.360448591583</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>3775.243809179247</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596854</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4650.822040414151</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>4650.822040414151</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>4361.693401627709</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V37" t="n">
-        <v>4107.008913421822</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="W37" t="n">
-        <v>4107.008913421822</v>
+        <v>1107.237827459029</v>
       </c>
       <c r="X37" t="n">
-        <v>4107.008913421822</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y37" t="n">
-        <v>4107.008913421822</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7177,25 +7177,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>905.3942309355725</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>905.3942309355725</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>615.9770608986119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>761.6107352641649</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>761.6107352641649</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>761.6107352641649</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2507.259996875532</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1315.094589363763</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1025.677419326802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>145.2351313103787</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>91.23759968302144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0121003135234</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>38.8600230194989</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.7371603504723</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M33" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.9802687929762</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.47535963978086</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.79526847463391</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.81375945208268</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.46455811544976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>141.0907818047494</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>90.51214010776167</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>108.1671071138454</v>
+        <v>82.39383318338528</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.1710279497979</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>59.71247254595499</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>27.43837499384514</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24897,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>107.759263773293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>3.86128221137875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>140.3375291694989</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>99.95295511325642</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>85.92354571433185</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>228.083256618256</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>139.9544292437872</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>70.154178941629</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="14">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="K2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="M2" t="n">
-        <v>586543.5896065627</v>
-      </c>
       <c r="N2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662654</v>
+        <v>-222678.497666266</v>
       </c>
       <c r="C6" t="n">
         <v>367289.3815482788</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.3815482787</v>
+        <v>367289.381548279</v>
       </c>
       <c r="E6" t="n">
-        <v>-52778.38040592021</v>
+        <v>-53752.97166564239</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709751</v>
+        <v>471407.0648112542</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709754</v>
+        <v>471407.0648112541</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.064811254</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709752</v>
+        <v>471407.064811254</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783822</v>
+        <v>294983.845618661</v>
       </c>
       <c r="K6" t="n">
-        <v>472381.6560709758</v>
+        <v>471407.0648112538</v>
       </c>
       <c r="L6" t="n">
-        <v>472381.6560709759</v>
+        <v>471407.064811254</v>
       </c>
       <c r="M6" t="n">
-        <v>337580.6408371382</v>
+        <v>336606.049577417</v>
       </c>
       <c r="N6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.064811254</v>
       </c>
       <c r="O6" t="n">
-        <v>472381.6560709756</v>
+        <v>471407.064811254</v>
       </c>
       <c r="P6" t="n">
-        <v>472381.6560709752</v>
+        <v>471407.0648112538</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.992550358016083e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>20.6916824211367</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>114.3810177118953</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>27.36945759170013</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>152.2820545873286</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>189.4109126662083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>274.6030296399667</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>190.7623767421578</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>9.63931577976399</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>130.7130205644154</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.053858940149583e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.000161767118023e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>265.095754002253</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>590.488811868312</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>455.6595083608449</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>133.1477786379281</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>469.4364773639896</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>536.1008625915805</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>316.5557073809155</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.2481640954534</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.4883924248551</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625342.229432986</v>
+        <v>2630281.492282017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37.55029853296594</v>
+        <v>7.130758887765257</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>26.32882004050043</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>64.82020454357844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>55.20066600931975</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274091</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.726532309042886</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2532,16 +2532,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274083</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>162.4410217923903</v>
       </c>
       <c r="T28" t="n">
-        <v>161.8350885124343</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>170.4824349897581</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>28.56876306769549</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231518</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1854691670921</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>122.6519788371562</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>166.2140976094962</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>275.5462129596849</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>516.7818851491245</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>516.7818851491245</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>516.7818851491245</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F2" t="n">
-        <v>105.7959803595169</v>
+        <v>479.109576677496</v>
       </c>
       <c r="G2" t="n">
-        <v>91.87257629810783</v>
+        <v>61.14576857568289</v>
       </c>
       <c r="H2" t="n">
-        <v>91.87257629810783</v>
+        <v>61.14576857568289</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
         <v>74.81188663097703</v>
@@ -4558,13 +4558,13 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047577</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5035,16 +5035,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>310.6051391271017</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C13" t="n">
-        <v>310.6051391271017</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706318</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.6051391271017</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5983,58 +5983,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.152096508364</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1295.232086423916</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3978353108171</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4616523829102</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1334.834430363569</v>
       </c>
       <c r="T28" t="n">
-        <v>1135.526474097259</v>
+        <v>1111.049015153074</v>
       </c>
       <c r="U28" t="n">
-        <v>846.3978353108171</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="V28" t="n">
-        <v>846.3978353108171</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="W28" t="n">
-        <v>846.3978353108171</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X28" t="n">
-        <v>846.3978353108171</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.3978353108171</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.2811958984813</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1326.711790770268</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1326.711790770268</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1326.711790770268</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V31" t="n">
-        <v>1326.711790770268</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.711790770268</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.722239872251</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y31" t="n">
-        <v>877.929660728721</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6867,13 +6867,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,25 +6931,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7098,49 +7098,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347409</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V37" t="n">
-        <v>1107.237827459029</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W37" t="n">
-        <v>1107.237827459029</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>879.2482765610114</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,34 +7159,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,7 +7195,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,31 +7350,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7420,16 +7420,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1220.586762517817</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>965.9022743119297</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>745.1096951683995</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>221.0467526719079</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>83.79526847463391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>163.383987342775</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>5.842169091310382</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>106.2378200947499</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>35.47978819121298</v>
       </c>
       <c r="T28" t="n">
-        <v>59.71247254595499</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>27.43837499384514</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>197.1408923213417</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.34209567542553</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>140.3375291694989</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644706</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>85.92354571433185</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>10.69113943889244</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="M2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="P2" t="n">
         <v>586543.5896065627</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>367289.3815482788</v>
       </c>
       <c r="D6" t="n">
-        <v>367289.381548279</v>
+        <v>367289.3815482789</v>
       </c>
       <c r="E6" t="n">
-        <v>-53752.97166564239</v>
+        <v>-52875.83953189255</v>
       </c>
       <c r="F6" t="n">
-        <v>471407.0648112542</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="G6" t="n">
-        <v>471407.0648112541</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="H6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="I6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="J6" t="n">
-        <v>294983.845618661</v>
+        <v>295860.9777524106</v>
       </c>
       <c r="K6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="L6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="M6" t="n">
-        <v>336606.049577417</v>
+        <v>337483.1817111664</v>
       </c>
       <c r="N6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="O6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="P6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450033</v>
       </c>
     </row>
   </sheetData>
@@ -26740,40 +26740,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>114.3810177118953</v>
+        <v>144.800557357096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>168.1320336449672</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>192.2558333115944</v>
       </c>
     </row>
     <row r="11">
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-3.582082778545252e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,31 +33350,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,31 +33587,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,31 +33824,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187114</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
